--- a/A4_Custo/Database_consolidada_Invacost_summary-vias_Aus-Cont_se.xlsx
+++ b/A4_Custo/Database_consolidada_Invacost_summary-vias_Aus-Cont_se.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,20 +360,30 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Situação</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Ambiente</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Categoria CDB</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Subcategoria CDB</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>custo_medio_BRL_mi</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>n_spp</t>
         </is>
@@ -382,631 +392,1709 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Corredor</t>
+          <t>Ausente</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Canais, bacias e mares interconectados</t>
-        </is>
-      </c>
-      <c r="C2">
-        <v>40.11739038401739</v>
-      </c>
-      <c r="D2">
-        <v>5</v>
+          <t>Marinho</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Escape</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Aquicultura/maricultura</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>15.706876687368</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Ausente</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Marinho</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>Escape</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Agricultura e biocombustíveis</t>
-        </is>
-      </c>
-      <c r="C3">
-        <v>0.04074332066274108</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Aquário, terrário e pet (incluindo comida viva para essas espécies)</t>
+        </is>
+      </c>
+      <c r="E3">
+        <v>13.680306501144</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Ausente</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Marinho</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>Escape</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Aquicultura/maricultura</t>
-        </is>
-      </c>
-      <c r="C4">
-        <v>15.91953418363543</v>
-      </c>
-      <c r="D4">
-        <v>11</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Comida viva e isca viva</t>
+        </is>
+      </c>
+      <c r="E4">
+        <v>13.680306501144</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Escape</t>
+          <t>Ausente</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Aquário, terrário e pet (incluindo comida viva para essas espécies)</t>
-        </is>
-      </c>
-      <c r="C5">
-        <v>56.30091241434976</v>
-      </c>
-      <c r="D5">
-        <v>15</v>
+          <t>Marinho</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Transporte clandestino</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Bioincrustação em navios</t>
+        </is>
+      </c>
+      <c r="E5">
+        <v>26.95159255950458</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Escape</t>
+          <t>Ausente</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Comida viva e isca viva</t>
-        </is>
-      </c>
-      <c r="C6">
-        <v>39.86912988811634</v>
-      </c>
-      <c r="D6">
-        <v>6</v>
+          <t>Marinho</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Transporte clandestino</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Maquinário e equipamento</t>
+        </is>
+      </c>
+      <c r="E6">
+        <v>3.6498683256535</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Escape</t>
+          <t>Ausente</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Fins ornamentais</t>
-        </is>
-      </c>
-      <c r="C7">
-        <v>6.783100052816218</v>
-      </c>
-      <c r="D7">
-        <v>8</v>
+          <t>Marinho</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Transporte clandestino</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Outro meio de transporte</t>
+        </is>
+      </c>
+      <c r="E7">
+        <v>3.65115355594025</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Escape</t>
+          <t>Ausente</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Jardim botânico, zoológico, aquário (não domésticos)</t>
-        </is>
-      </c>
-      <c r="C8">
-        <v>63.37049013404812</v>
-      </c>
-      <c r="D8">
-        <v>18</v>
+          <t>Marinho</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Transporte clandestino</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Água de lastro</t>
+        </is>
+      </c>
+      <c r="E8">
+        <v>38.45863324646159</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Escape</t>
+          <t>Ausente</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Pesquisa e criação ex-situ</t>
-        </is>
-      </c>
-      <c r="C9">
-        <v>0.04442634189133333</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
+          <t>Marinho</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Transporte como contaminante</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Contaminantes em animais (exceto parasitas)</t>
+        </is>
+      </c>
+      <c r="E9">
+        <v>0.00128523028675</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Escape</t>
+          <t>Ausente</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Plantas cultivadas</t>
-        </is>
-      </c>
-      <c r="C10">
-        <v>57.69485173029581</v>
-      </c>
-      <c r="D10">
-        <v>10</v>
+          <t>Marinho</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Transporte como contaminante</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Contaminação de comida incluindo comida viva</t>
+        </is>
+      </c>
+      <c r="E10">
+        <v>3.6498683256535</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>Ausente</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Terrestre</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>Escape</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Fazendas de peles de animais</t>
-        </is>
-      </c>
-      <c r="C11">
-        <v>15.2040526935372</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Agricultura e biocombustíveis</t>
+        </is>
+      </c>
+      <c r="E11">
+        <v>0.04074332066274108</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>Ausente</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Terrestre</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>Escape</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Produção florestal e reflorestamento</t>
-        </is>
-      </c>
-      <c r="C12">
-        <v>0.0068411666044</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Fins ornamentais</t>
+        </is>
+      </c>
+      <c r="E12">
+        <v>6.779821181159019</v>
+      </c>
+      <c r="F12">
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sem ajuda humana</t>
+          <t>Ausente</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Dispersão natural (vias 1 a 5) por fronteiras</t>
-        </is>
-      </c>
-      <c r="C13">
-        <v>1.014944217042</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
+          <t>Terrestre</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Escape</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Jardim botânico, zoológico, aquário (não domésticos)</t>
+        </is>
+      </c>
+      <c r="E13">
+        <v>6.76725479924023</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Soltura na natureza</t>
+          <t>Ausente</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Controle biológico</t>
-        </is>
-      </c>
-      <c r="C14">
-        <v>0.0987730747943258</v>
-      </c>
-      <c r="D14">
-        <v>3</v>
+          <t>Terrestre</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Escape</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Plantas cultivadas</t>
+        </is>
+      </c>
+      <c r="E14">
+        <v>57.68801056369141</v>
+      </c>
+      <c r="F14">
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>Ausente</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Terrestre</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>Soltura na natureza</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>Controle de erosão, quebra vento ou cerca viva</t>
         </is>
       </c>
-      <c r="C15">
+      <c r="E15">
         <v>0.001027823681887755</v>
       </c>
-      <c r="D15">
+      <c r="F15">
         <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>Ausente</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Terrestre</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>Soltura na natureza</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>Melhoramento de paisagem</t>
         </is>
       </c>
-      <c r="C16">
-        <v>15.57649098745242</v>
-      </c>
-      <c r="D16">
-        <v>8</v>
+      <c r="E16">
+        <v>0.01252454740638889</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>Ausente</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Terrestre</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>Soltura na natureza</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>Outra soltura intencional</t>
         </is>
       </c>
-      <c r="C17">
-        <v>0.2390406999910164</v>
-      </c>
-      <c r="D17">
-        <v>5</v>
+      <c r="E17">
+        <v>0.004280890434</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Soltura na natureza</t>
+          <t>Ausente</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Pesca na natureza</t>
-        </is>
-      </c>
-      <c r="C18">
-        <v>0.2100862952864267</v>
-      </c>
-      <c r="D18">
-        <v>8</v>
+          <t>Terrestre</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Transporte clandestino</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Container/volume</t>
+        </is>
+      </c>
+      <c r="E18">
+        <v>1.192627578256286</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Soltura na natureza</t>
+          <t>Ausente</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Caça na natureza</t>
-        </is>
-      </c>
-      <c r="C19">
-        <v>15.12118079366559</v>
-      </c>
-      <c r="D19">
-        <v>4</v>
+          <t>Terrestre</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Transporte clandestino</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Maquinário e equipamento</t>
+        </is>
+      </c>
+      <c r="E19">
+        <v>38.56579649100674</v>
+      </c>
+      <c r="F19">
+        <v>8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>Ausente</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Terrestre</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>Transporte clandestino</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Bioincrustação em navios</t>
-        </is>
-      </c>
-      <c r="C20">
-        <v>38.86680261989063</v>
-      </c>
-      <c r="D20">
-        <v>6</v>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Material de embalagem orgânico</t>
+        </is>
+      </c>
+      <c r="E20">
+        <v>952.0490478726789</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>Ausente</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Terrestre</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>Transporte clandestino</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Container/volume</t>
-        </is>
-      </c>
-      <c r="C21">
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Presença em avião</t>
+        </is>
+      </c>
+      <c r="E21">
         <v>1.192627578256286</v>
       </c>
-      <c r="D21">
+      <c r="F21">
         <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>Ausente</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Terrestre</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>Transporte clandestino</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Equipamento de pesca</t>
-        </is>
-      </c>
-      <c r="C22">
-        <v>11.87924921870405</v>
-      </c>
-      <c r="D22">
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Presença em navio e embarcação</t>
+        </is>
+      </c>
+      <c r="E22">
+        <v>1.192627578256286</v>
+      </c>
+      <c r="F22">
         <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>Ausente</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Terrestre</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>Transporte clandestino</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Maquinário e equipamento</t>
-        </is>
-      </c>
-      <c r="C23">
-        <v>54.09491403536428</v>
-      </c>
-      <c r="D23">
-        <v>10</v>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Veículos</t>
+        </is>
+      </c>
+      <c r="E23">
+        <v>26.53021681485606</v>
+      </c>
+      <c r="F23">
+        <v>6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Transporte clandestino</t>
+          <t>Ausente</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Material de embalagem orgânico</t>
-        </is>
-      </c>
-      <c r="C24">
+          <t>Terrestre</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Transporte como contaminante</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Comércio de madeira</t>
+        </is>
+      </c>
+      <c r="E24">
         <v>952.0490478726789</v>
       </c>
-      <c r="D24">
+      <c r="F24">
         <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Transporte clandestino</t>
+          <t>Ausente</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Outro meio de transporte</t>
-        </is>
-      </c>
-      <c r="C25">
-        <v>3.700551575143584</v>
-      </c>
-      <c r="D25">
-        <v>4</v>
+          <t>Terrestre</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Transporte como contaminante</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Contaminantes em animais (exceto parasitas)</t>
+        </is>
+      </c>
+      <c r="E25">
+        <v>3.2588500044934</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Transporte clandestino</t>
+          <t>Ausente</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Presença em avião</t>
-        </is>
-      </c>
-      <c r="C26">
-        <v>1.192627578256286</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
+          <t>Terrestre</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Transporte como contaminante</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Contaminantes em plantas (exceto parasitas)</t>
+        </is>
+      </c>
+      <c r="E26">
+        <v>952.0543565867948</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Transporte clandestino</t>
+          <t>Ausente</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Presença em navio e embarcação</t>
-        </is>
-      </c>
-      <c r="C27">
-        <v>1.192627578256286</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
+          <t>Terrestre</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Transporte como contaminante</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Contaminação em material para viveiros</t>
+        </is>
+      </c>
+      <c r="E27">
+        <v>952.0490478726789</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Transporte clandestino</t>
+          <t>Ausente</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Veículos</t>
-        </is>
-      </c>
-      <c r="C28">
-        <v>26.53021681485606</v>
-      </c>
-      <c r="D28">
-        <v>6</v>
+          <t>Terrestre</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Transporte como contaminante</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Contaminação em sementes</t>
+        </is>
+      </c>
+      <c r="E28">
+        <v>20.18558659575922</v>
+      </c>
+      <c r="F28">
+        <v>4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Transporte clandestino</t>
+          <t>Ausente</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Água de lastro</t>
-        </is>
-      </c>
-      <c r="C29">
-        <v>52.38775401556097</v>
-      </c>
-      <c r="D29">
-        <v>9</v>
+          <t>Terrestre</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Transporte como contaminante</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Transporte de material natural</t>
+        </is>
+      </c>
+      <c r="E29">
+        <v>975.1592180268234</v>
+      </c>
+      <c r="F29">
+        <v>11</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Transporte como contaminante</t>
+          <t>Ausente</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Comércio de madeira</t>
-        </is>
-      </c>
-      <c r="C30">
-        <v>952.0490478726789</v>
-      </c>
-      <c r="D30">
-        <v>2</v>
+          <t>Água doce</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Corredor</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Canais, bacias e mares interconectados</t>
+        </is>
+      </c>
+      <c r="E30">
+        <v>40.11739038401739</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Transporte como contaminante</t>
+          <t>Ausente</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Contaminantes em animais (exceto parasitas)</t>
-        </is>
-      </c>
-      <c r="C31">
-        <v>15.1419556544652</v>
-      </c>
-      <c r="D31">
-        <v>4</v>
+          <t>Água doce</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Escape</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Aquicultura/maricultura</t>
+        </is>
+      </c>
+      <c r="E31">
+        <v>0.2107425235464267</v>
+      </c>
+      <c r="F31">
+        <v>8</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Transporte como contaminante</t>
+          <t>Ausente</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Contaminantes em plantas (exceto parasitas)</t>
-        </is>
-      </c>
-      <c r="C32">
-        <v>952.0543565867948</v>
-      </c>
-      <c r="D32">
-        <v>4</v>
+          <t>Água doce</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Escape</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Aquário, terrário e pet (incluindo comida viva para essas espécies)</t>
+        </is>
+      </c>
+      <c r="E32">
+        <v>40.96966165138492</v>
+      </c>
+      <c r="F32">
+        <v>9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Transporte como contaminante</t>
+          <t>Ausente</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Contaminação de comida incluindo comida viva</t>
-        </is>
-      </c>
-      <c r="C33">
-        <v>3.6498683256535</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
+          <t>Água doce</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Escape</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Comida viva e isca viva</t>
+        </is>
+      </c>
+      <c r="E33">
+        <v>26.18882338697234</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Transporte como contaminante</t>
+          <t>Ausente</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Contaminação em material para viveiros</t>
-        </is>
-      </c>
-      <c r="C34">
-        <v>952.0524313227821</v>
-      </c>
-      <c r="D34">
-        <v>3</v>
+          <t>Água doce</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Escape</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Jardim botânico, zoológico, aquário (não domésticos)</t>
+        </is>
+      </c>
+      <c r="E34">
+        <v>40.92885839902639</v>
+      </c>
+      <c r="F34">
+        <v>6</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Transporte como contaminante</t>
+          <t>Ausente</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Contaminação em sementes</t>
-        </is>
-      </c>
-      <c r="C35">
-        <v>20.18897004586242</v>
-      </c>
-      <c r="D35">
-        <v>5</v>
+          <t>Água doce</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Escape</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Pesquisa e criação ex-situ</t>
+        </is>
+      </c>
+      <c r="E35">
+        <v>0.04442634189133333</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
+          <t>Ausente</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Água doce</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Soltura na natureza</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Controle biológico</t>
+        </is>
+      </c>
+      <c r="E36">
+        <v>0.001444416619533334</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Ausente</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Água doce</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Soltura na natureza</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Melhoramento de paisagem</t>
+        </is>
+      </c>
+      <c r="E37">
+        <v>0.01343717752133333</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Ausente</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Água doce</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Soltura na natureza</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Outra soltura intencional</t>
+        </is>
+      </c>
+      <c r="E38">
+        <v>0.1174602822940933</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Ausente</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Água doce</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Soltura na natureza</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Pesca na natureza</t>
+        </is>
+      </c>
+      <c r="E39">
+        <v>0.2081713225654267</v>
+      </c>
+      <c r="F39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Ausente</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Água doce</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Transporte clandestino</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Bioincrustação em navios</t>
+        </is>
+      </c>
+      <c r="E40">
+        <v>11.91521006038605</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Ausente</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Água doce</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Transporte clandestino</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Equipamento de pesca</t>
+        </is>
+      </c>
+      <c r="E41">
+        <v>11.87924921870405</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Ausente</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Água doce</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Transporte clandestino</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Maquinário e equipamento</t>
+        </is>
+      </c>
+      <c r="E42">
+        <v>11.87924921870405</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Ausente</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Água doce</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Transporte clandestino</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Outro meio de transporte</t>
+        </is>
+      </c>
+      <c r="E43">
+        <v>0.04939801920333333</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Ausente</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Água doce</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Transporte clandestino</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Água de lastro</t>
+        </is>
+      </c>
+      <c r="E44">
+        <v>13.92912076909938</v>
+      </c>
+      <c r="F44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Ausente</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Água doce</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
           <t>Transporte como contaminante</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Contaminantes em animais (exceto parasitas)</t>
+        </is>
+      </c>
+      <c r="E45">
+        <v>11.88182041968505</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Ausente</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Água doce</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Transporte como contaminante</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>Transporte de material natural</t>
         </is>
       </c>
-      <c r="C36">
-        <v>987.0418506956306</v>
-      </c>
-      <c r="D36">
-        <v>13</v>
+      <c r="E46">
+        <v>11.87924921870405</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Contida</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Terrestre</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Escape</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Aquário, terrário e pet (incluindo comida viva para essas espécies)</t>
+        </is>
+      </c>
+      <c r="E47">
+        <v>1.650944261820833</v>
+      </c>
+      <c r="F47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Contida</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Terrestre</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Escape</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Fins ornamentais</t>
+        </is>
+      </c>
+      <c r="E48">
+        <v>0.0032788716572</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Contida</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Terrestre</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Escape</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Jardim botânico, zoológico, aquário (não domésticos)</t>
+        </is>
+      </c>
+      <c r="E49">
+        <v>15.6743769357815</v>
+      </c>
+      <c r="F49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Contida</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Terrestre</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Escape</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Plantas cultivadas</t>
+        </is>
+      </c>
+      <c r="E50">
+        <v>0.0068411666044</v>
+      </c>
+      <c r="F50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Contida</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Terrestre</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Escape</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Fazendas de peles de animais</t>
+        </is>
+      </c>
+      <c r="E51">
+        <v>15.2040526935372</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Contida</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Terrestre</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Escape</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Produção florestal e reflorestamento</t>
+        </is>
+      </c>
+      <c r="E52">
+        <v>0.0068411666044</v>
+      </c>
+      <c r="F52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Contida</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Terrestre</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Sem ajuda humana</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Dispersão natural (vias 1 a 5) por fronteiras</t>
+        </is>
+      </c>
+      <c r="E53">
+        <v>1.014944217042</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Contida</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Terrestre</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Soltura na natureza</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Controle biológico</t>
+        </is>
+      </c>
+      <c r="E54">
+        <v>0.09732865817479247</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Contida</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Terrestre</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Soltura na natureza</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Melhoramento de paisagem</t>
+        </is>
+      </c>
+      <c r="E55">
+        <v>15.5505292625247</v>
+      </c>
+      <c r="F55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Contida</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Terrestre</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Soltura na natureza</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Outra soltura intencional</t>
+        </is>
+      </c>
+      <c r="E56">
+        <v>0.1172995272629231</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Contida</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Terrestre</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Soltura na natureza</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Caça na natureza</t>
+        </is>
+      </c>
+      <c r="E57">
+        <v>15.12118079366559</v>
+      </c>
+      <c r="F57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Contida</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Terrestre</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Transporte como contaminante</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Contaminação em material para viveiros</t>
+        </is>
+      </c>
+      <c r="E58">
+        <v>0.0033834501032</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Contida</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Terrestre</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Transporte como contaminante</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Contaminação em sementes</t>
+        </is>
+      </c>
+      <c r="E59">
+        <v>0.0033834501032</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Contida</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Terrestre</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Transporte como contaminante</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Transporte de material natural</t>
+        </is>
+      </c>
+      <c r="E60">
+        <v>0.0033834501032</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Contida</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Água doce</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Escape</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Aquicultura/maricultura</t>
+        </is>
+      </c>
+      <c r="E61">
+        <v>0.001914972721</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Contida</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Água doce</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Soltura na natureza</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Pesca na natureza</t>
+        </is>
+      </c>
+      <c r="E62">
+        <v>0.001914972721</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
